--- a/rhla_analysis/rhla1_3_uniform_result/result.xlsx
+++ b/rhla_analysis/rhla1_3_uniform_result/result.xlsx
@@ -448,47 +448,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>k=0标准差</t>
+          <t>k=0 Standard Deviation</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.337482589482331</v>
+        <v>1.33748258948233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>k=0中位数</t>
+          <t>k=0 Median</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.339653993880466</v>
+        <v>5.339653993880486</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>k=0平均值</t>
+          <t>k=0 Mean</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.532163920258663</v>
+        <v>5.532163920258669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>k=0去出最大值最小值平均数</t>
+          <t>k=0 Mean without extremes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.410762131161756</v>
+        <v>5.410762131161764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>k=0ex_rs平均值</t>
+          <t>k=0 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,47 +498,47 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>k=1标准差</t>
+          <t>k=1 Standard Deviation</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.731095015872766</v>
+        <v>3.731095015872745</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>k=1中位数</t>
+          <t>k=1 Median</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.5171398829418</v>
+        <v>7.517139882941787</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>k=1平均值</t>
+          <t>k=1 Mean</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.614998121909915</v>
+        <v>8.614998121909903</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>k=1去出最大值最小值平均数</t>
+          <t>k=1 Mean without extremes</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.074575453891086</v>
+        <v>8.074575453891079</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>k=1ex_rs平均值</t>
+          <t>k=1 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,197 +548,197 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>k=2标准差</t>
+          <t>k=2 Standard Deviation</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.266476853222824</v>
+        <v>5.266476853222842</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>k=2中位数</t>
+          <t>k=2 Median</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.69915812142836</v>
+        <v>13.69915812142843</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>k=2平均值</t>
+          <t>k=2 Mean</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.7785471945531</v>
+        <v>13.77854719455314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>k=2去出最大值最小值平均数</t>
+          <t>k=2 Mean without extremes</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13.7784699488056</v>
+        <v>13.77846994880563</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>k=2ex_rs平均值</t>
+          <t>k=2 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07821824381926684</v>
+        <v>0.07821824381926686</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>k=3标准差</t>
+          <t>k=3 Standard Deviation</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.964833109721546</v>
+        <v>6.964833109721519</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>k=3中位数</t>
+          <t>k=3 Median</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13.68841873798496</v>
+        <v>13.688418737985</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>k=3平均值</t>
+          <t>k=3 Mean</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.05005927432094</v>
+        <v>15.05005927432093</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>k=3去出最大值最小值平均数</t>
+          <t>k=3 Mean without extremes</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14.33623582883154</v>
+        <v>14.33623582883152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>k=3ex_rs平均值</t>
+          <t>k=3 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08256606990622334</v>
+        <v>0.08256606990622335</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>k=4标准差</t>
+          <t>k=4 Standard Deviation</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.06242439096378</v>
+        <v>10.06242439096383</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>k=4中位数</t>
+          <t>k=4 Median</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15.45341615419655</v>
+        <v>15.45341615419648</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>k=4平均值</t>
+          <t>k=4 Mean</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.25326058438997</v>
+        <v>19.25326058438998</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>k=4去出最大值最小值平均数</t>
+          <t>k=4 Mean without extremes</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.03413266300876</v>
+        <v>18.03413266300875</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>k=4ex_rs平均值</t>
+          <t>k=4 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.09599317988064793</v>
+        <v>0.09599317988064791</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>k=5标准差</t>
+          <t>k=5 Standard Deviation</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.801516982782266</v>
+        <v>8.801516982782228</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>k=5中位数</t>
+          <t>k=5 Median</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.45299653380963</v>
+        <v>21.45299653380967</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>k=5平均值</t>
+          <t>k=5 Mean</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22.37271917259826</v>
+        <v>22.37271917259825</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>k=5去出最大值最小值平均数</t>
+          <t>k=5 Mean without extremes</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22.02440161412926</v>
+        <v>22.02440161412923</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>k=5ex_rs平均值</t>
+          <t>k=5 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,47 +748,47 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>k=6标准差</t>
+          <t>k=6 Standard Deviation</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>18.0251000386304</v>
+        <v>18.02510003863041</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>k=6中位数</t>
+          <t>k=6 Median</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37.16014467185811</v>
+        <v>37.16014467185833</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>k=6平均值</t>
+          <t>k=6 Mean</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.70908712885574</v>
+        <v>42.70908712885581</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>k=6去出最大值最小值平均数</t>
+          <t>k=6 Mean without extremes</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>39.88542964610087</v>
+        <v>39.88542964610097</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>k=6ex_rs平均值</t>
+          <t>k=6 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,27 +798,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>k=7标准差</t>
+          <t>k=7 Standard Deviation</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.7503153565598</v>
+        <v>21.75031535655997</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>k=7中位数</t>
+          <t>k=7 Median</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.27648241993604</v>
+        <v>46.27648241993609</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>k=7平均值</t>
+          <t>k=7 Mean</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,17 +828,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>k=7去出最大值最小值平均数</t>
+          <t>k=7 Mean without extremes</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.2812682035604</v>
+        <v>51.28126820356033</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>k=7ex_rs平均值</t>
+          <t>k=7 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,97 +848,97 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>k=8标准差</t>
+          <t>k=8 Standard Deviation</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.57894622841264</v>
+        <v>31.57894622841252</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>k=8中位数</t>
+          <t>k=8 Median</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>58.47865514458752</v>
+        <v>58.47865514458748</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>k=8平均值</t>
+          <t>k=8 Mean</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>67.33278269337553</v>
+        <v>67.33278269337556</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>k=8去出最大值最小值平均数</t>
+          <t>k=8 Mean without extremes</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>63.97564791816209</v>
+        <v>63.97564791816225</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>k=8ex_rs平均值</t>
+          <t>k=8 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1597186700767264</v>
+        <v>0.1597186700767263</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>k=9标准差</t>
+          <t>k=9 Standard Deviation</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>42.60789595814909</v>
+        <v>42.60789595814978</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>k=9中位数</t>
+          <t>k=9 Median</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>106.847426594141</v>
+        <v>106.8474265941404</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>k=9平均值</t>
+          <t>k=9 Mean</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>116.8212654233277</v>
+        <v>116.8212654233281</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>k=9去出最大值最小值平均数</t>
+          <t>k=9 Mean without extremes</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>114.2975418007311</v>
+        <v>114.2975418007315</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>k=9ex_rs平均值</t>
+          <t>k=9 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,47 +948,47 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>k=10标准差</t>
+          <t>k=10 Standard Deviation</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>51.30710730656873</v>
+        <v>51.30710730656856</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>k=10中位数</t>
+          <t>k=10 Median</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>145.2050755432494</v>
+        <v>145.2050755432496</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>k=10平均值</t>
+          <t>k=10 Mean</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>132.3159317320373</v>
+        <v>132.3159317320374</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>k=10去出最大值最小值平均数</t>
+          <t>k=10 Mean without extremes</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>130.4213529451899</v>
+        <v>130.4213529451901</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>k=10ex_rs平均值</t>
+          <t>k=10 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B56" t="n">
